--- a/data/trans_orig/P14C30-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C30-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B58D33-6AB1-4E6E-9184-82054E909E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D87891-BC6F-45A5-95AE-C6CE9E587E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55E2A2BD-0886-4F00-A34A-2C0830AD773F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB3332BF-49F2-4760-996E-C13C35A9A24E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="94">
   <si>
     <t>Población según el tiempo de diagnóstico del cirrosis en 2015 (Tasa respuesta: 0,5%)</t>
   </si>
@@ -77,6 +77,9 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>77,39%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -89,7 +92,7 @@
     <t>33,04%</t>
   </si>
   <si>
-    <t>81,22%</t>
+    <t>81,91%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -98,6 +101,9 @@
     <t>79,64%</t>
   </si>
   <si>
+    <t>22,61%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
@@ -107,7 +113,7 @@
     <t>66,96%</t>
   </si>
   <si>
-    <t>18,78%</t>
+    <t>18,09%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -146,9 +152,6 @@
     <t>29,93%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -182,18 +185,12 @@
     <t>73,96%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
     <t>34,77%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
     <t>Malaga</t>
   </si>
   <si>
@@ -203,10 +200,10 @@
     <t>52,68%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>66,54%</t>
@@ -215,16 +212,16 @@
     <t>56,67%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>57,19%</t>
+    <t>58,22%</t>
   </si>
   <si>
     <t>33,46%</t>
@@ -233,91 +230,91 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>51,19%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>77,86%</t>
+    <t>78,27%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>68,22%</t>
+    <t>63,36%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>41,36%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>32,04%</t>
+    <t>38,97%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>44,45%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -732,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA072E24-38D4-4D87-8BC5-CEEC1591F31A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F475FC0-1032-4B2F-BD50-65318C72FA68}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -871,13 +868,13 @@
         <v>922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -886,19 +883,19 @@
         <v>1914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -907,13 +904,13 @@
         <v>3879</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -925,10 +922,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -937,19 +934,19 @@
         <v>3879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -961,10 +958,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -976,10 +973,10 @@
         <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -991,10 +988,10 @@
         <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1009,13 +1006,13 @@
         <v>4871</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1024,13 +1021,13 @@
         <v>922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1039,18 +1036,18 @@
         <v>5793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1065,10 +1062,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1077,13 +1074,13 @@
         <v>1002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1092,19 +1089,19 @@
         <v>1002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -1113,13 +1110,13 @@
         <v>2152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1131,10 +1128,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -1143,19 +1140,19 @@
         <v>2152</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1167,10 +1164,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1179,13 +1176,13 @@
         <v>1347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1194,13 +1191,13 @@
         <v>1347</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1215,13 +1212,13 @@
         <v>2152</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1230,13 +1227,13 @@
         <v>2349</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -1245,18 +1242,18 @@
         <v>4501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1268,13 +1265,13 @@
         <v>920</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1286,10 +1283,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1298,19 +1295,19 @@
         <v>920</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1322,10 +1319,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1334,13 +1331,13 @@
         <v>884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1349,19 +1346,19 @@
         <v>884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1373,10 +1370,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1388,10 +1385,10 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1403,10 +1400,10 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1421,13 +1418,13 @@
         <v>920</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1436,13 +1433,13 @@
         <v>884</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -1451,18 +1448,18 @@
         <v>1804</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1474,13 +1471,13 @@
         <v>1973</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1489,13 +1486,13 @@
         <v>2101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1504,19 +1501,19 @@
         <v>4074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1528,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1543,10 +1540,10 @@
         <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1558,16 +1555,16 @@
         <v>12</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1579,10 +1576,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1594,10 +1591,10 @@
         <v>12</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1609,10 +1606,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,13 +1624,13 @@
         <v>1973</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1642,13 +1639,13 @@
         <v>2101</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -1657,18 +1654,18 @@
         <v>4074</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1678,13 +1675,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1693,13 +1690,13 @@
         <v>1956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1708,32 +1705,32 @@
         <v>1956</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1745,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1760,29 +1757,29 @@
         <v>12</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1794,10 +1791,10 @@
         <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1809,10 +1806,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1822,13 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1840,13 +1837,13 @@
         <v>1956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -1855,18 +1852,18 @@
         <v>1956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1878,13 +1875,13 @@
         <v>1941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -1893,13 +1890,13 @@
         <v>997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -1908,19 +1905,19 @@
         <v>2938</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -1935,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1947,10 +1944,10 @@
         <v>12</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -1965,13 +1962,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1983,10 +1980,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -1998,10 +1995,10 @@
         <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2013,10 +2010,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2028,13 @@
         <v>2976</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2046,13 +2043,13 @@
         <v>997</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
@@ -2061,18 +2058,18 @@
         <v>3973</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2084,13 +2081,13 @@
         <v>3023</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2099,13 +2096,13 @@
         <v>1376</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2114,19 +2111,19 @@
         <v>4399</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2138,10 +2135,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2153,10 +2150,10 @@
         <v>12</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2168,16 +2165,16 @@
         <v>12</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2189,10 +2186,10 @@
         <v>12</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2204,10 +2201,10 @@
         <v>12</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2219,10 +2216,10 @@
         <v>12</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2234,13 @@
         <v>3023</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2252,13 +2249,13 @@
         <v>1376</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -2267,18 +2264,18 @@
         <v>4399</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2290,13 +2287,13 @@
         <v>4094</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2305,13 +2302,13 @@
         <v>2085</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -2320,19 +2317,19 @@
         <v>6178</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -2341,13 +2338,13 @@
         <v>1019</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2356,13 +2353,13 @@
         <v>1049</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -2371,19 +2368,19 @@
         <v>2067</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>2</v>
@@ -2392,14 +2389,14 @@
         <v>2658</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -2410,10 +2407,10 @@
         <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2422,13 +2419,13 @@
         <v>2657</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2440,13 @@
         <v>7770</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -2458,13 +2455,13 @@
         <v>3134</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -2473,13 +2470,13 @@
         <v>10903</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2493,13 @@
         <v>12943</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -2511,13 +2508,13 @@
         <v>10440</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -2526,19 +2523,19 @@
         <v>23382</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="7">
         <v>7</v>
@@ -2547,13 +2544,13 @@
         <v>8085</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -2562,13 +2559,13 @@
         <v>1933</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -2577,19 +2574,19 @@
         <v>10018</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -2598,13 +2595,13 @@
         <v>2657</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -2613,13 +2610,13 @@
         <v>1347</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -2628,13 +2625,13 @@
         <v>4004</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2646,13 @@
         <v>23685</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" s="7">
         <v>12</v>
@@ -2664,13 +2661,13 @@
         <v>13720</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39" s="7">
         <v>33</v>
@@ -2679,18 +2676,18 @@
         <v>37404</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C30-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C30-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D87891-BC6F-45A5-95AE-C6CE9E587E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFA1E49-57D0-49AB-8821-73303E4A5F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB3332BF-49F2-4760-996E-C13C35A9A24E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94795413-7BD7-4C05-A060-7F68C043F410}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="94">
-  <si>
-    <t>Población según el tiempo de diagnóstico del cirrosis en 2015 (Tasa respuesta: 0,5%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="95">
+  <si>
+    <t>Población según el tiempo de diagnóstico del cirrosis en 2016 (Tasa respuesta: 0,5%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -92,7 +92,7 @@
     <t>33,04%</t>
   </si>
   <si>
-    <t>81,91%</t>
+    <t>81,5%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,7 +113,7 @@
     <t>66,96%</t>
   </si>
   <si>
-    <t>18,09%</t>
+    <t>18,5%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -152,6 +152,9 @@
     <t>29,93%</t>
   </si>
   <si>
+    <t>80,14%</t>
+  </si>
+  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -212,10 +215,10 @@
     <t>56,67%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>13,11%</t>
@@ -230,7 +233,7 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>51,19%</t>
+    <t>51,06%</t>
   </si>
   <si>
     <t>34,2%</t>
@@ -242,79 +245,79 @@
     <t>24,37%</t>
   </si>
   <si>
-    <t>63,36%</t>
+    <t>59,48%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>39,12%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>38,97%</t>
+    <t>37,13%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>40,98%</t>
+    <t>40,02%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -729,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F475FC0-1032-4B2F-BD50-65318C72FA68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5F1E2E-670F-4899-B55C-4476D85C9F65}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1197,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,7 +1256,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1295,7 +1298,7 @@
         <v>920</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
@@ -1346,7 +1349,7 @@
         <v>884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1504,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -1558,7 +1561,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,7 +1612,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,7 +1668,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1675,13 +1678,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1724,13 +1727,13 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1773,13 +1776,13 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1822,13 +1825,13 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1875,7 +1878,7 @@
         <v>1941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
@@ -1905,7 +1908,7 @@
         <v>2938</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
@@ -1926,7 +1929,7 @@
         <v>1035</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
@@ -1956,7 +1959,7 @@
         <v>1035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
@@ -1983,7 +1986,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2069,7 +2072,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2114,7 +2117,7 @@
         <v>14</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>16</v>
@@ -2168,7 +2171,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,7 +2222,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2278,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2287,13 +2290,13 @@
         <v>4094</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2302,7 +2305,7 @@
         <v>2085</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
@@ -2317,13 +2320,13 @@
         <v>6178</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2341,13 @@
         <v>1019</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2353,7 +2356,7 @@
         <v>1049</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
@@ -2368,13 +2371,13 @@
         <v>2067</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2392,13 @@
         <v>2658</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2410,7 +2413,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2419,13 +2422,13 @@
         <v>2657</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2496,13 @@
         <v>12943</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -2508,13 +2511,13 @@
         <v>10440</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -2523,13 +2526,13 @@
         <v>23382</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2547,13 @@
         <v>8085</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -2559,13 +2562,13 @@
         <v>1933</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -2574,13 +2577,13 @@
         <v>10018</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2598,13 @@
         <v>2657</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -2610,13 +2613,13 @@
         <v>1347</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -2625,13 +2628,13 @@
         <v>4004</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2690,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
